--- a/app/data/uploads/baseJugadores/equiposArgentina.xlsx
+++ b/app/data/uploads/baseJugadores/equiposArgentina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2B70D4F-C9A4-49D5-89DD-99C5966AA0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB0DB85-BF8E-4583-8E94-ECD88251F1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="1006">
   <si>
     <t>Racing Club de Avellaneda</t>
   </si>
@@ -3048,12 +3048,15 @@
   </si>
   <si>
     <t>A.A.T.E.D.Y.C. de Ushuaia</t>
+  </si>
+  <si>
+    <t>River Plate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3411,11 +3414,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D1005"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:D1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A980" workbookViewId="0">
+      <selection activeCell="B1007" sqref="B1007"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3722,7 +3725,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
         <v>14057767</v>
       </c>
@@ -3733,7 +3736,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
         <v>14064689</v>
       </c>
@@ -4547,7 +4550,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="105" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B105" s="1">
         <v>14031218</v>
       </c>
@@ -4811,7 +4814,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="129" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B129" s="1">
         <v>14123533</v>
       </c>
@@ -4866,7 +4869,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="134" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B134" s="1">
         <v>14064720</v>
       </c>
@@ -5262,7 +5265,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="170" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B170" s="1">
         <v>14255993</v>
       </c>
@@ -5383,7 +5386,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="181" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B181" s="1">
         <v>14181533</v>
       </c>
@@ -5416,7 +5419,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="184" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B184" s="1">
         <v>14255980</v>
       </c>
@@ -5449,7 +5452,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="187" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B187" s="1">
         <v>14089895</v>
       </c>
@@ -5735,7 +5738,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="213" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B213" s="1">
         <v>14256007</v>
       </c>
@@ -5757,7 +5760,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="215" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B215" s="1">
         <v>14093727</v>
       </c>
@@ -5801,7 +5804,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="219" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B219" s="1">
         <v>14181550</v>
       </c>
@@ -5834,7 +5837,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="222" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B222" s="1">
         <v>14028740</v>
       </c>
@@ -5867,7 +5870,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="225" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B225" s="1">
         <v>2000123466</v>
       </c>
@@ -5911,7 +5914,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="229" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B229" s="1">
         <v>2000037545</v>
       </c>
@@ -6076,7 +6079,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="244" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B244" s="1">
         <v>14064698</v>
       </c>
@@ -6087,7 +6090,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="245" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B245" s="1">
         <v>14255976</v>
       </c>
@@ -6109,7 +6112,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="247" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B247" s="1">
         <v>2000119827</v>
       </c>
@@ -6153,7 +6156,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="251" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B251" s="1">
         <v>14158094</v>
       </c>
@@ -6241,7 +6244,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="259" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B259" s="1">
         <v>14189550</v>
       </c>
@@ -6285,7 +6288,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="263" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B263" s="1">
         <v>14064685</v>
       </c>
@@ -6395,7 +6398,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="273" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B273" s="1">
         <v>2000123444</v>
       </c>
@@ -7110,7 +7113,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="338" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B338" s="1">
         <v>108567</v>
       </c>
@@ -7143,7 +7146,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="341" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B341" s="1">
         <v>2000054137</v>
       </c>
@@ -7341,7 +7344,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="359" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B359" s="1">
         <v>2000123403</v>
       </c>
@@ -7396,7 +7399,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="364" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B364" s="1">
         <v>2000069449</v>
       </c>
@@ -7748,7 +7751,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="396" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B396" s="1">
         <v>14181552</v>
       </c>
@@ -7825,7 +7828,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="403" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B403" s="1">
         <v>14031213</v>
       </c>
@@ -7836,7 +7839,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="404" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B404" s="1">
         <v>14064655</v>
       </c>
@@ -7891,7 +7894,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="409" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="409" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B409" s="1">
         <v>14057733</v>
       </c>
@@ -7902,7 +7905,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="410" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="410" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B410" s="1">
         <v>14224856</v>
       </c>
@@ -7935,7 +7938,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="413" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="413" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B413" s="1">
         <v>14064649</v>
       </c>
@@ -7957,7 +7960,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="415" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="415" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B415" s="1">
         <v>14158096</v>
       </c>
@@ -7979,7 +7982,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="417" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="417" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B417" s="1">
         <v>14028673</v>
       </c>
@@ -7990,7 +7993,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="418" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="418" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B418" s="1">
         <v>14064740</v>
       </c>
@@ -8155,7 +8158,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="433" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="433" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B433" s="1">
         <v>2000132003</v>
       </c>
@@ -8287,7 +8290,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="445" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="445" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B445" s="1">
         <v>14123491</v>
       </c>
@@ -8716,7 +8719,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="484" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="484" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B484" s="1">
         <v>14123505</v>
       </c>
@@ -8727,7 +8730,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="485" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="485" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B485" s="1">
         <v>14256000</v>
       </c>
@@ -8749,7 +8752,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="487" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="487" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B487" s="1">
         <v>3101441</v>
       </c>
@@ -9134,7 +9137,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="522" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="522" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B522" s="1">
         <v>14064765</v>
       </c>
@@ -9343,7 +9346,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="541" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="541" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B541" s="1">
         <v>14123486</v>
       </c>
@@ -9816,7 +9819,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="584" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="584" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B584" s="1">
         <v>14256004</v>
       </c>
@@ -10025,7 +10028,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="603" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="603" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B603" s="1">
         <v>14017679</v>
       </c>
@@ -10047,7 +10050,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="605" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="605" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B605" s="1">
         <v>14093723</v>
       </c>
@@ -10432,7 +10435,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="640" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="640" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B640" s="1">
         <v>14064780</v>
       </c>
@@ -10696,7 +10699,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="664" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="664" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B664" s="1">
         <v>14064646</v>
       </c>
@@ -10894,7 +10897,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="682" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="682" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B682" s="1">
         <v>14028703</v>
       </c>
@@ -11015,7 +11018,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="693" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="693" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B693" s="1">
         <v>14123503</v>
       </c>
@@ -11081,7 +11084,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="699" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="699" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B699" s="1">
         <v>14123550</v>
       </c>
@@ -11125,7 +11128,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="703" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="703" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B703" s="1">
         <v>14064648</v>
       </c>
@@ -11136,7 +11139,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="704" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="704" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B704" s="1">
         <v>14064722</v>
       </c>
@@ -11620,7 +11623,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="748" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="748" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B748" s="1">
         <v>2000123435</v>
       </c>
@@ -11631,7 +11634,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="749" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="749" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B749" s="1">
         <v>14031222</v>
       </c>
@@ -11961,7 +11964,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="779" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="779" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B779" s="1">
         <v>14064739</v>
       </c>
@@ -12016,7 +12019,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="784" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="784" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B784" s="1">
         <v>14093711</v>
       </c>
@@ -12357,7 +12360,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="815" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="815" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B815" s="1">
         <v>2000037544</v>
       </c>
@@ -13303,7 +13306,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="901" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="901" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B901" s="1">
         <v>2000054139</v>
       </c>
@@ -13501,7 +13504,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="919" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="919" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B919" s="1">
         <v>14046676</v>
       </c>
@@ -13611,7 +13614,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="929" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="929" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B929" s="1">
         <v>14093701</v>
       </c>
@@ -13622,7 +13625,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="930" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="930" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B930" s="1">
         <v>14064675</v>
       </c>
@@ -13688,7 +13691,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="936" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="936" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B936" s="1">
         <v>14158120</v>
       </c>
@@ -13908,7 +13911,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="956" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="956" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B956" s="1">
         <v>14209372</v>
       </c>
@@ -13930,7 +13933,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="958" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="958" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B958" s="1">
         <v>14064641</v>
       </c>
@@ -13974,7 +13977,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="962" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="962" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B962" s="1">
         <v>14093766</v>
       </c>
@@ -13985,7 +13988,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="963" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="963" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B963" s="1">
         <v>14037240</v>
       </c>
@@ -14062,7 +14065,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="970" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="970" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B970" s="1">
         <v>14064703</v>
       </c>
@@ -14084,7 +14087,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="972" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="972" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B972" s="1">
         <v>14031191</v>
       </c>
@@ -14095,7 +14098,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="973" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="973" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B973" s="1">
         <v>14061798</v>
       </c>
@@ -14117,7 +14120,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="975" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="975" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B975" s="1">
         <v>14189559</v>
       </c>
@@ -14455,6 +14458,17 @@
         <v>1004</v>
       </c>
       <c r="D1005" s="1">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="1006" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1006" s="1">
+        <v>94</v>
+      </c>
+      <c r="C1006" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D1006" s="1">
         <v>1649</v>
       </c>
     </row>
